--- a/ThumbsUpV2_rp2040_Position.xlsx
+++ b/ThumbsUpV2_rp2040_Position.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak\Documents\GitHub\ThumbsUpUnsplitV2Rp2040\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B138EB4-AD6C-43D6-91CC-72E52EEC96E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E7B09-7A3D-45A0-9DA4-0FB6D6BBFCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="6795" windowWidth="16950" windowHeight="13185" xr2:uid="{069EF252-3851-460D-B925-4F1AFCE2B653}"/>
+    <workbookView xWindow="12675" yWindow="-15" windowWidth="11340" windowHeight="18030" xr2:uid="{069EF252-3851-460D-B925-4F1AFCE2B653}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$E$76</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$E$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
-  <si>
-    <t>BOOTSEL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
   <si>
     <t>bottom</t>
   </si>
@@ -262,15 +251,9 @@
     <t>R7</t>
   </si>
   <si>
-    <t>RUN</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>USB1</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -287,6 +270,21 @@
   </si>
   <si>
     <t>Rotation</t>
+  </si>
+  <si>
+    <t>BOOTSEL1</t>
+  </si>
+  <si>
+    <t>J32</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>RUN1</t>
   </si>
 </sst>
 </file>
@@ -371,7 +369,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6B39B46-231D-4E5E-AE3C-C34433FD6EA4}" name="ThumbsUp_bottom_pos" displayName="ThumbsUp_bottom_pos" ref="A1:E76" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6B39B46-231D-4E5E-AE3C-C34433FD6EA4}" name="ThumbsUp_bottom_pos" displayName="ThumbsUp_bottom_pos" ref="A1:E78" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{60315696-EE99-4A5A-8754-08378A19D25A}" uniqueName="1" name="Designator" queryTableFieldId="1"/>
     <tableColumn id="4" xr3:uid="{3B4F1014-4520-43CC-B416-3F388AE6288B}" uniqueName="4" name="Mid X" queryTableFieldId="4"/>
@@ -680,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECC110C-1783-4832-8AE2-E60AAE298490}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,33 +693,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>134.89599999999999</v>
       </c>
       <c r="C2">
-        <v>-228.38300000000001</v>
+        <v>-228.81700000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>180</v>
@@ -729,7 +727,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>139.6215</v>
@@ -738,7 +736,7 @@
         <v>-209.804</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>180</v>
@@ -746,7 +744,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>148.024</v>
@@ -755,7 +753,7 @@
         <v>-209.41200000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>90</v>
@@ -763,7 +761,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>139.642</v>
@@ -772,7 +770,7 @@
         <v>-212.09</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>180</v>
@@ -780,7 +778,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>164.33799999999999</v>
@@ -789,7 +787,7 @@
         <v>-222.88499999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>180</v>
@@ -797,7 +795,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>156.71799999999999</v>
@@ -806,7 +804,7 @@
         <v>-223.012</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,7 +812,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>139.72049999999999</v>
@@ -823,7 +821,7 @@
         <v>-219.83699999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>180</v>
@@ -831,7 +829,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>154.7645</v>
@@ -840,7 +838,7 @@
         <v>-219.964</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -848,7 +846,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>142.18199999999999</v>
@@ -857,7 +855,7 @@
         <v>-196.96600000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -865,7 +863,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>139.72049999999999</v>
@@ -874,7 +872,7 @@
         <v>-214.376</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>180</v>
@@ -882,7 +880,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>139.89599999999999</v>
@@ -891,7 +889,7 @@
         <v>-197.0445</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>90</v>
@@ -899,7 +897,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>144.214</v>
@@ -908,7 +906,7 @@
         <v>-210.50649999999999</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>90</v>
@@ -916,7 +914,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>150.56399999999999</v>
@@ -925,7 +923,7 @@
         <v>-209.41200000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>90</v>
@@ -933,7 +931,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>145.48400000000001</v>
@@ -942,7 +940,7 @@
         <v>-225.16</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>270</v>
@@ -950,7 +948,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>150.56399999999999</v>
@@ -959,7 +957,7 @@
         <v>-205.68049999999999</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>270</v>
@@ -967,7 +965,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>154.62799999999999</v>
@@ -976,7 +974,7 @@
         <v>-214.74600000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -984,7 +982,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>147.51599999999999</v>
@@ -993,7 +991,7 @@
         <v>-225.16</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>270</v>
@@ -1001,7 +999,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>139.76249999999999</v>
@@ -1010,7 +1008,7 @@
         <v>-178.59375</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>180</v>
@@ -1018,7 +1016,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>139.76249999999999</v>
@@ -1027,7 +1025,7 @@
         <v>-176.21250000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>180</v>
@@ -1035,7 +1033,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>139.76249999999999</v>
@@ -1044,7 +1042,7 @@
         <v>-173.83125000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>180</v>
@@ -1052,7 +1050,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>139.76249999999999</v>
@@ -1061,7 +1059,7 @@
         <v>-171.45</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>180</v>
@@ -1069,7 +1067,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>134.9375</v>
@@ -1078,7 +1076,7 @@
         <v>-193.67500000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>180</v>
@@ -1086,7 +1084,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>134.9375</v>
@@ -1095,7 +1093,7 @@
         <v>-191.29374999999999</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>180</v>
@@ -1103,7 +1101,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>134.9375</v>
@@ -1112,7 +1110,7 @@
         <v>-188.91249999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>180</v>
@@ -1120,7 +1118,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>134.9375</v>
@@ -1129,7 +1127,7 @@
         <v>-186.53125</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>180</v>
@@ -1137,7 +1135,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>108.74375000000001</v>
@@ -1146,7 +1144,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>90</v>
@@ -1154,7 +1152,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>111.125</v>
@@ -1163,7 +1161,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>90</v>
@@ -1171,7 +1169,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>113.50624999999999</v>
@@ -1180,7 +1178,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>90</v>
@@ -1188,7 +1186,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>115.8875</v>
@@ -1197,7 +1195,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -1205,7 +1203,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>103.98125</v>
@@ -1214,7 +1212,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>90</v>
@@ -1222,7 +1220,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>101.6</v>
@@ -1231,7 +1229,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>90</v>
@@ -1239,7 +1237,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>139.76249999999999</v>
@@ -1248,7 +1246,7 @@
         <v>-180.97499999999999</v>
       </c>
       <c r="D33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>180</v>
@@ -1256,7 +1254,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>134.9375</v>
@@ -1265,7 +1263,7 @@
         <v>-196.05625000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>180</v>
@@ -1273,7 +1271,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>106.3625</v>
@@ -1282,7 +1280,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>90</v>
@@ -1290,7 +1288,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>99.21875</v>
@@ -1299,7 +1297,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>90</v>
@@ -1307,7 +1305,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>96.837500000000006</v>
@@ -1316,7 +1314,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>90</v>
@@ -1324,7 +1322,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>139.76249999999999</v>
@@ -1333,7 +1331,7 @@
         <v>-169.06874999999999</v>
       </c>
       <c r="D38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>180</v>
@@ -1341,7 +1339,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>134.9375</v>
@@ -1350,7 +1348,7 @@
         <v>-184.15</v>
       </c>
       <c r="D39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>180</v>
@@ -1358,7 +1356,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>118.26875</v>
@@ -1367,7 +1365,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -1375,7 +1373,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>154.05000000000001</v>
@@ -1384,7 +1382,7 @@
         <v>-169.06874999999999</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1392,7 +1390,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>156.30625000000001</v>
@@ -1401,7 +1399,7 @@
         <v>-184.15</v>
       </c>
       <c r="D42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1409,7 +1407,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>177.8</v>
@@ -1418,7 +1416,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>90</v>
@@ -1426,7 +1424,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>154.05000000000001</v>
@@ -1435,7 +1433,7 @@
         <v>-180.97499999999999</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1443,7 +1441,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>156.30625000000001</v>
@@ -1452,7 +1450,7 @@
         <v>-196.05625000000001</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1460,7 +1458,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>189.70625000000001</v>
@@ -1469,7 +1467,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>90</v>
@@ -1477,7 +1475,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>196.85</v>
@@ -1486,7 +1484,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>90</v>
@@ -1494,7 +1492,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>199.23124999999999</v>
@@ -1503,7 +1501,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>90</v>
@@ -1511,7 +1509,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>154.05000000000001</v>
@@ -1520,7 +1518,7 @@
         <v>-178.59375</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1528,7 +1526,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>154.05000000000001</v>
@@ -1537,7 +1535,7 @@
         <v>-176.21250000000001</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1545,7 +1543,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>154.05000000000001</v>
@@ -1554,7 +1552,7 @@
         <v>-173.83125000000001</v>
       </c>
       <c r="D51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1562,7 +1560,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>154.05000000000001</v>
@@ -1571,7 +1569,7 @@
         <v>-171.45</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1579,7 +1577,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>156.30625000000001</v>
@@ -1588,7 +1586,7 @@
         <v>-193.67500000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1596,7 +1594,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>156.30625000000001</v>
@@ -1605,7 +1603,7 @@
         <v>-191.29374999999999</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1613,7 +1611,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>156.30625000000001</v>
@@ -1622,7 +1620,7 @@
         <v>-188.91249999999999</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1630,7 +1628,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>156.30625000000001</v>
@@ -1639,7 +1637,7 @@
         <v>-186.53125</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1647,7 +1645,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>187.32499999999999</v>
@@ -1656,7 +1654,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>90</v>
@@ -1664,7 +1662,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>184.94374999999999</v>
@@ -1673,7 +1671,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>90</v>
@@ -1681,7 +1679,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>182.5625</v>
@@ -1690,7 +1688,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>90</v>
@@ -1698,7 +1696,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>180.18125000000001</v>
@@ -1707,7 +1705,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>90</v>
@@ -1715,7 +1713,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>192.08750000000001</v>
@@ -1724,7 +1722,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>90</v>
@@ -1732,7 +1730,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>194.46875</v>
@@ -1741,7 +1739,7 @@
         <v>-207.96250000000001</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>90</v>
@@ -1749,16 +1747,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>144.52600000000001</v>
+        <v>143.00200000000001</v>
       </c>
       <c r="C63">
-        <v>-166.87799999999999</v>
+        <v>-164.976</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>90</v>
@@ -1766,7 +1764,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>147.00800000000001</v>
@@ -1775,7 +1773,7 @@
         <v>-217.54</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>180</v>
@@ -1783,7 +1781,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>161.27600000000001</v>
@@ -1792,7 +1790,7 @@
         <v>-208.01499999999999</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>180</v>
@@ -1800,33 +1798,33 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B66">
-        <v>145.542</v>
+        <v>147.32</v>
       </c>
       <c r="C66">
-        <v>-189.05449999999999</v>
+        <v>-156.97200000000001</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67">
-        <v>147.57400000000001</v>
+        <v>145.542</v>
       </c>
       <c r="C67">
         <v>-189.05449999999999</v>
       </c>
       <c r="D67" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>90</v>
@@ -1834,101 +1832,101 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>163.37049999999999</v>
+        <v>147.57400000000001</v>
       </c>
       <c r="C68">
-        <v>-203.07300000000001</v>
+        <v>-189.05449999999999</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69">
-        <v>171.32300000000001</v>
+        <v>163.37049999999999</v>
       </c>
       <c r="C69">
-        <v>-225.21950000000001</v>
+        <v>-203.07300000000001</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70">
-        <v>173.35499999999999</v>
+        <v>171.32300000000001</v>
       </c>
       <c r="C70">
         <v>-225.21950000000001</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71">
-        <v>150.62200000000001</v>
+        <v>173.35499999999999</v>
       </c>
       <c r="C71">
-        <v>-225.17099999999999</v>
+        <v>-225.21950000000001</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72">
-        <v>159.7175</v>
+        <v>150.62200000000001</v>
       </c>
       <c r="C72">
-        <v>-203.07300000000001</v>
+        <v>-225.17099999999999</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>126.47</v>
+        <v>159.7175</v>
       </c>
       <c r="C73">
-        <v>-228.38300000000001</v>
+        <v>-203.07300000000001</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>180</v>
@@ -1936,16 +1934,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>140.99</v>
+        <v>145.79599999999999</v>
       </c>
       <c r="C74">
-        <v>-204.06</v>
+        <v>-165.0215</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>270</v>
@@ -1953,16 +1951,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>146.69999999999999</v>
+        <v>150.114</v>
       </c>
       <c r="C75">
-        <v>-155</v>
+        <v>-165.0215</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>270</v>
@@ -1970,18 +1968,52 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B76">
+        <v>126.97799999999999</v>
+      </c>
+      <c r="C76">
+        <v>-228.81700000000001</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77">
+        <v>140.99</v>
+      </c>
+      <c r="C77">
+        <v>-204.06</v>
+      </c>
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78">
         <v>160.52799999999999</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <v>-226.56800000000001</v>
       </c>
-      <c r="D76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76">
+      <c r="D78" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78">
         <v>0</v>
       </c>
     </row>
